--- a/NZ Windows/36768/res.xlsx
+++ b/NZ Windows/36768/res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\NZ Windows\36768\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2A4683DD-919A-4BF6-907F-4C5E082BBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A6ECB1-5F64-4184-B215-178CA2E9596E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="585" windowWidth="28890" windowHeight="19710" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="11325" yWindow="3030" windowWidth="26775" windowHeight="17745" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>type</t>
   </si>
@@ -47,6 +47,108 @@
   </si>
   <si>
     <t>Resource Id</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Metro-Resi - Install Checklist</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>checkpoint</t>
+  </si>
+  <si>
+    <t>Has the window/door installation been completed?</t>
+  </si>
+  <si>
+    <t>Is interior sealants installation neat and continuous.</t>
+  </si>
+  <si>
+    <t>Is exterior sealants installation neat and continuous.</t>
+  </si>
+  <si>
+    <t>Is sill flashing installed per plans and as detailed in the shop drawings?</t>
+  </si>
+  <si>
+    <t>Is head flashing installed per plans and as detailed in the shop drawings?</t>
+  </si>
+  <si>
+    <t>Are all window and doors working?</t>
+  </si>
+  <si>
+    <t>All handles installed correctly?</t>
+  </si>
+  <si>
+    <t>Are all the hardware installed correctly?</t>
+  </si>
+  <si>
+    <t>Is the joinery free of scratches?</t>
+  </si>
+  <si>
+    <t>Is the joinery clean and tidy?</t>
+  </si>
+  <si>
+    <t>Are Restrictor Stays fitted(Fully Fixed off &amp; Silent operation)</t>
+  </si>
+  <si>
+    <t>Hinge doors strikes adjusted and locking easily</t>
+  </si>
+  <si>
+    <t>Hinge doors 4 or 3 point lock operate easily</t>
+  </si>
+  <si>
+    <t>Hinge doors and sliding doors - Bungs are fitted (every hole)</t>
+  </si>
+  <si>
+    <t>Sliding doors - panels are adjusted and locking easily</t>
+  </si>
+  <si>
+    <t>Sliding doors - Strikes are adjusted</t>
+  </si>
+  <si>
+    <t>Sliding doors - Anti lift blocks and stops fitted properly</t>
+  </si>
+  <si>
+    <t>Windows open, close, and lock smoothly without excessive force.</t>
+  </si>
+  <si>
+    <t>All operable windows have functional hardware (locks, latches, etc.)</t>
+  </si>
+  <si>
+    <t>Proper spacing and clearances are maintained around the window units.</t>
+  </si>
+  <si>
+    <t>Fasteners used are correct in type, size, and spacing</t>
+  </si>
+  <si>
+    <t>End Caps Installed</t>
+  </si>
+  <si>
+    <t>Frames installed correctly?</t>
+  </si>
+  <si>
+    <t>Drains are not blocked</t>
+  </si>
+  <si>
+    <t>Primed liners</t>
+  </si>
+  <si>
+    <t>Sealant between the liners &amp; frame</t>
+  </si>
+  <si>
+    <t>Staple distance</t>
+  </si>
+  <si>
+    <t>Metro-Resi - Install Checklist (Stage 1-3)</t>
   </si>
 </sst>
 </file>
@@ -189,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +469,30 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -530,8 +656,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -907,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -915,10 +1045,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="176" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -950,6 +1085,249 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
